--- a/consumption_tables/Total energy consumption._              Billion Btu/Wind energy, total consumed._                 Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Wind energy, total consumed._                 Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>StateCode</t>
   </si>
@@ -56,6 +56,9 @@
     <t>AL</t>
   </si>
   <si>
+    <t>0.0%</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
@@ -65,18 +68,36 @@
     <t>inf</t>
   </si>
   <si>
+    <t>0.29259728182472916%</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>0.3854587829882364%</t>
+  </si>
+  <si>
+    <t>1.4846528423701921%</t>
+  </si>
+  <si>
+    <t>1.0991940593819558%</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
+    <t>4.706170067158618%</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
     <t>DE</t>
   </si>
   <si>
+    <t>0.017265255471827057%</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
@@ -86,21 +107,45 @@
     <t>HI</t>
   </si>
   <si>
+    <t>0.0933355319036404%</t>
+  </si>
+  <si>
+    <t>2.021825804304258%</t>
+  </si>
+  <si>
+    <t>1.9284902724006177%</t>
+  </si>
+  <si>
     <t>IA</t>
   </si>
   <si>
+    <t>11.142293283382394%</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>4.034609612043565%</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
+    <t>2.540213151260291%</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
+    <t>1.4782703706162978%</t>
+  </si>
+  <si>
     <t>KS</t>
   </si>
   <si>
+    <t>9.467214591121074%</t>
+  </si>
+  <si>
     <t>KY</t>
   </si>
   <si>
@@ -110,100 +155,205 @@
     <t>MA</t>
   </si>
   <si>
+    <t>0.13842181140166618%</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
+    <t>0.2893960982260376%</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
+    <t>2.976711393347451%</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
+    <t>1.6153371386612743%</t>
+  </si>
+  <si>
     <t>MN</t>
   </si>
   <si>
+    <t>0.0002141306225348212%</t>
+  </si>
+  <si>
+    <t>5.148760876897896%</t>
+  </si>
+  <si>
+    <t>5.148546746275361%</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>0.5269986205084412%</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
     <t>MT</t>
   </si>
   <si>
+    <t>4.677416882539585%</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
     <t>ND</t>
   </si>
   <si>
+    <t>9.97871825637835%</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>3.4741847873865486%</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>1.2931910069656045%</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
+    <t>0.008786297572227956%</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
+    <t>2.8831023881034463%</t>
+  </si>
+  <si>
     <t>NV</t>
   </si>
   <si>
+    <t>0.44431580600365184%</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
+    <t>0.9950672202663895%</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
+    <t>0.2996914869814243%</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>8.017438545071036%</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
+    <t>0.0006133740068452539%</t>
+  </si>
+  <si>
+    <t>6.459654726913156%</t>
+  </si>
+  <si>
+    <t>6.45904135290631%</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
+    <t>0.8049743312019532%</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
+    <t>0.04638264696884468%</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
+    <t>6.068855459857783%</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
+    <t>0.019700551615445233%</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
+    <t>3.2393761106226915%</t>
+  </si>
+  <si>
     <t>UT</t>
   </si>
   <si>
+    <t>0.7374014090649932%</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
     <t>VT</t>
   </si>
   <si>
+    <t>2.296969696969697%</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
+    <t>3.3160429975145767%</t>
+  </si>
+  <si>
     <t>WI</t>
   </si>
   <si>
+    <t>0.8338653722076403%</t>
+  </si>
+  <si>
     <t>WV</t>
   </si>
   <si>
+    <t>1.655020228025009%</t>
+  </si>
+  <si>
     <t>WY</t>
   </si>
   <si>
+    <t>6.684168321368565%</t>
+  </si>
+  <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>0.03432537009676283%</t>
+  </si>
+  <si>
+    <t>1.8275447670350493%</t>
+  </si>
+  <si>
+    <t>1.7932193969382866%</t>
   </si>
 </sst>
 </file>
@@ -628,14 +778,14 @@
       <c r="G2" s="2" t="n">
         <v>4854000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0</v>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0</v>
@@ -652,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
@@ -667,14 +817,14 @@
       <c r="G3" s="2" t="n">
         <v>2978000</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0</v>
@@ -691,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>0</v>
@@ -700,7 +850,7 @@
         <v>4213</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>3684000</v>
@@ -708,14 +858,14 @@
       <c r="G4" s="2" t="n">
         <v>6818000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.002925972818247292</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.002925972818247292</v>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
@@ -732,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>28698</v>
@@ -749,14 +899,14 @@
       <c r="G5" s="2" t="n">
         <v>38994000</v>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>0.003854587829882364</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.01484652842370192</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0.01099194059381956</v>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="K5" s="3" t="n">
         <v>0.0009578771695594125</v>
@@ -773,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0</v>
@@ -782,7 +932,7 @@
         <v>69662</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>3308000</v>
@@ -790,14 +940,14 @@
       <c r="G6" s="2" t="n">
         <v>5449000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.04706170067158618</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0.04706170067158618</v>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>0</v>
@@ -814,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
@@ -829,14 +979,14 @@
       <c r="G7" s="2" t="n">
         <v>3585000</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>0</v>
@@ -853,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
@@ -862,7 +1012,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>670000</v>
@@ -870,14 +1020,14 @@
       <c r="G8" s="2" t="n">
         <v>944000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.0001726525547182706</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.0001726525547182706</v>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>0</v>
@@ -894,7 +1044,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0</v>
@@ -909,14 +1059,14 @@
       <c r="G9" s="2" t="n">
         <v>20245000</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>0</v>
@@ -933,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0</v>
@@ -948,14 +1098,14 @@
       <c r="G10" s="2" t="n">
         <v>10199000</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0</v>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>0</v>
@@ -972,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>300</v>
@@ -989,14 +1139,14 @@
       <c r="G11" s="2" t="n">
         <v>1425000</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0.0009333553190364039</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.02021825804304258</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0.01928490272400618</v>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>0.0002695417789757413</v>
@@ -1013,7 +1163,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
@@ -1022,7 +1172,7 @@
         <v>166555</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2781000</v>
@@ -1030,14 +1180,14 @@
       <c r="G12" s="2" t="n">
         <v>3122000</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.1114229328338239</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>0.1114229328338239</v>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>0</v>
@@ -1054,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
@@ -1063,7 +1213,7 @@
         <v>21156</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>1012000</v>
@@ -1071,14 +1221,14 @@
       <c r="G13" s="2" t="n">
         <v>1653000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.04034609612043565</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0.04034609612043565</v>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0</v>
@@ -1095,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
@@ -1104,7 +1254,7 @@
         <v>100154</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>11453000</v>
@@ -1112,14 +1262,14 @@
       <c r="G14" s="2" t="n">
         <v>12839000</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.02540213151260291</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.02540213151260291</v>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>0</v>
@@ -1136,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
@@ -1145,7 +1295,7 @@
         <v>42077</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>5558000</v>
@@ -1153,14 +1303,14 @@
       <c r="G15" s="2" t="n">
         <v>6613000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.01478270370616298</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0.01478270370616298</v>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>0</v>
@@ -1177,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0</v>
@@ -1186,7 +1336,7 @@
         <v>102495</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>2481000</v>
@@ -1194,14 +1344,14 @@
       <c r="G16" s="2" t="n">
         <v>2907000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.09467214591121074</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>0.09467214591121074</v>
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>0</v>
@@ -1218,7 +1368,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
@@ -1233,14 +1383,14 @@
       <c r="G17" s="2" t="n">
         <v>4425000</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0</v>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1407,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
@@ -1272,14 +1422,14 @@
       <c r="G18" s="2" t="n">
         <v>4669000</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0</v>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>0</v>
@@ -1296,7 +1446,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
@@ -1305,7 +1455,7 @@
         <v>2000</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>6023000</v>
@@ -1313,14 +1463,14 @@
       <c r="G19" s="2" t="n">
         <v>6784000</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.001384218114016662</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0.001384218114016662</v>
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>0</v>
@@ -1337,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0</v>
@@ -1346,7 +1496,7 @@
         <v>4050</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>4800000</v>
@@ -1354,14 +1504,14 @@
       <c r="G20" s="2" t="n">
         <v>5995000</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.002893960982260376</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0.002893960982260376</v>
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>0</v>
@@ -1378,7 +1528,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0</v>
@@ -1387,7 +1537,7 @@
         <v>12075</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>1232000</v>
@@ -1395,14 +1545,14 @@
       <c r="G21" s="2" t="n">
         <v>1329000</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0.02976711393347451</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0.02976711393347451</v>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K21" s="2" t="n">
         <v>0</v>
@@ -1419,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0</v>
@@ -1428,7 +1578,7 @@
         <v>44702</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>9311000</v>
@@ -1436,14 +1586,14 @@
       <c r="G22" s="2" t="n">
         <v>9918000</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.01615337138661274</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0.01615337138661274</v>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>0</v>
@@ -1460,7 +1610,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3</v>
@@ -1477,14 +1627,14 @@
       <c r="G23" s="2" t="n">
         <v>5482000</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>2.141306225348212e-06</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.05148760876897895</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0.05148546746275361</v>
+      <c r="H23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K23" s="2" t="n">
         <v>6.83371298405467e-07</v>
@@ -1501,7 +1651,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0</v>
@@ -1510,7 +1660,7 @@
         <v>9627</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>5129000</v>
@@ -1518,14 +1668,14 @@
       <c r="G24" s="2" t="n">
         <v>6076000</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.005269986205084412</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>0.005269986205084412</v>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>0</v>
@@ -1542,7 +1692,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0</v>
@@ -1557,14 +1707,14 @@
       <c r="G25" s="2" t="n">
         <v>2989000</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0</v>
+      <c r="H25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>0</v>
@@ -1581,7 +1731,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0</v>
@@ -1590,7 +1740,7 @@
         <v>18309</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>800000</v>
@@ -1598,14 +1748,14 @@
       <c r="G26" s="2" t="n">
         <v>1032000</v>
       </c>
-      <c r="H26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.04677416882539585</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0.04677416882539585</v>
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>0</v>
@@ -1622,7 +1772,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0</v>
@@ -1637,14 +1787,14 @@
       <c r="G27" s="2" t="n">
         <v>10035000</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0</v>
+      <c r="H27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>0</v>
@@ -1661,7 +1811,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0</v>
@@ -1670,7 +1820,7 @@
         <v>60627</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>638000</v>
@@ -1678,14 +1828,14 @@
       <c r="G28" s="2" t="n">
         <v>757000</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0.09978718256378351</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0.09978718256378351</v>
+      <c r="H28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>0</v>
@@ -1702,7 +1852,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0</v>
@@ -1711,7 +1861,7 @@
         <v>29639</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>1221000</v>
@@ -1719,14 +1869,14 @@
       <c r="G29" s="2" t="n">
         <v>2884000</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.03474184787386549</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0.03474184787386549</v>
+      <c r="H29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>0</v>
@@ -1743,7 +1893,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0</v>
@@ -1752,7 +1902,7 @@
         <v>3947</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>1112000</v>
@@ -1760,14 +1910,14 @@
       <c r="G30" s="2" t="n">
         <v>1330000</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.01293191006965604</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0.01293191006965604</v>
+      <c r="H30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0</v>
@@ -1784,7 +1934,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0</v>
@@ -1793,7 +1943,7 @@
         <v>201</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>7763000</v>
@@ -1801,14 +1951,14 @@
       <c r="G31" s="2" t="n">
         <v>8935000</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>8.786297572227956e-05</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>8.786297572227956e-05</v>
+      <c r="H31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>0</v>
@@ -1825,7 +1975,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>0</v>
@@ -1834,7 +1984,7 @@
         <v>19477</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>1522000</v>
@@ -1842,14 +1992,14 @@
       <c r="G32" s="2" t="n">
         <v>2080000</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.02883102388103446</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>0.02883102388103446</v>
+      <c r="H32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>0</v>
@@ -1866,7 +2016,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>0</v>
@@ -1875,7 +2025,7 @@
         <v>2886</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>1582000</v>
@@ -1883,14 +2033,14 @@
       <c r="G33" s="2" t="n">
         <v>1894000</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0.004443158060036518</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>0.004443158060036518</v>
+      <c r="H33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>0</v>
@@ -1907,7 +2057,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0</v>
@@ -1916,7 +2066,7 @@
         <v>37061</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>18021000</v>
@@ -1924,14 +2074,14 @@
       <c r="G34" s="2" t="n">
         <v>19747000</v>
       </c>
-      <c r="H34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.009950672202663895</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>0.009950672202663895</v>
+      <c r="H34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>0</v>
@@ -1948,7 +2098,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0</v>
@@ -1957,7 +2107,7 @@
         <v>11211</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>10864000</v>
@@ -1965,14 +2115,14 @@
       <c r="G35" s="2" t="n">
         <v>11605000</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0.002996914869814243</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>0.002996914869814243</v>
+      <c r="H35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>0</v>
@@ -1989,7 +2139,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>0</v>
@@ -1998,7 +2148,7 @@
         <v>130754</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>3149000</v>
@@ -2006,14 +2156,14 @@
       <c r="G36" s="2" t="n">
         <v>3907000</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.08017438545071036</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.08017438545071036</v>
+      <c r="H36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>0</v>
@@ -2030,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>6</v>
@@ -2047,14 +2197,14 @@
       <c r="G37" s="2" t="n">
         <v>4025000</v>
       </c>
-      <c r="H37" s="2" t="n">
-        <v>6.13374006845254e-06</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.06459654726913155</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.0645904135290631</v>
+      <c r="H37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>2.097902097902098e-06</v>
@@ -2071,7 +2221,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>0</v>
@@ -2080,7 +2230,7 @@
         <v>31244</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>11903000</v>
@@ -2088,14 +2238,14 @@
       <c r="G38" s="2" t="n">
         <v>12792000</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.008049743312019532</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>0.008049743312019532</v>
+      <c r="H38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>0</v>
@@ -2112,7 +2262,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0</v>
@@ -2121,7 +2271,7 @@
         <v>94</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>1006000</v>
@@ -2129,14 +2279,14 @@
       <c r="G39" s="2" t="n">
         <v>1056000</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0.0004638264696884467</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>0.0004638264696884467</v>
+      <c r="H39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>0</v>
@@ -2153,7 +2303,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>0</v>
@@ -2168,14 +2318,14 @@
       <c r="G40" s="2" t="n">
         <v>4895000</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>0</v>
+      <c r="H40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>0</v>
@@ -2192,7 +2342,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0</v>
@@ -2201,7 +2351,7 @@
         <v>23274</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>697000</v>
@@ -2209,14 +2359,14 @@
       <c r="G41" s="2" t="n">
         <v>858000</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0.06068855459857783</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>0.06068855459857783</v>
+      <c r="H41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>0</v>
@@ -2233,7 +2383,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>0</v>
@@ -2242,7 +2392,7 @@
         <v>427</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>4894000</v>
@@ -2250,14 +2400,14 @@
       <c r="G42" s="2" t="n">
         <v>6595000</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0.0001970055161544523</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>0.0001970055161544523</v>
+      <c r="H42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>0</v>
@@ -2274,7 +2424,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>0</v>
@@ -2283,7 +2433,7 @@
         <v>417802</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>17057000</v>
@@ -2291,14 +2441,14 @@
       <c r="G43" s="2" t="n">
         <v>27430000</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.03239376110622692</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>0.03239376110622692</v>
+      <c r="H43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>0</v>
@@ -2315,7 +2465,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>0</v>
@@ -2324,7 +2474,7 @@
         <v>5833</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>1731000</v>
@@ -2332,14 +2482,14 @@
       <c r="G44" s="2" t="n">
         <v>2991000</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.007374014090649932</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>0.007374014090649932</v>
+      <c r="H44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>0</v>
@@ -2356,7 +2506,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>0</v>
@@ -2371,14 +2521,14 @@
       <c r="G45" s="2" t="n">
         <v>8368000</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>0</v>
+      <c r="H45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>0</v>
@@ -2395,7 +2545,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>0</v>
@@ -2404,7 +2554,7 @@
         <v>3032</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>565000</v>
@@ -2412,14 +2562,14 @@
       <c r="G46" s="2" t="n">
         <v>626000</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0.02296969696969697</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>0.02296969696969697</v>
+      <c r="H46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>0</v>
@@ -2436,7 +2586,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>0</v>
@@ -2445,7 +2595,7 @@
         <v>65936</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>4903000</v>
@@ -2453,14 +2603,14 @@
       <c r="G47" s="2" t="n">
         <v>7160000</v>
       </c>
-      <c r="H47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0.03316042997514577</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>0.03316042997514577</v>
+      <c r="H47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>0</v>
@@ -2477,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>0</v>
@@ -2486,7 +2636,7 @@
         <v>14811</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>4905000</v>
@@ -2494,14 +2644,14 @@
       <c r="G48" s="2" t="n">
         <v>5768000</v>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0.008338653722076404</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>0.008338653722076404</v>
+      <c r="H48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>0</v>
@@ -2518,7 +2668,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>0</v>
@@ -2527,7 +2677,7 @@
         <v>12825</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>1793000</v>
@@ -2535,14 +2685,14 @@
       <c r="G49" s="2" t="n">
         <v>1841000</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0.01655020228025009</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>0.01655020228025009</v>
+      <c r="H49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>0</v>
@@ -2559,7 +2709,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>0</v>
@@ -2568,7 +2718,7 @@
         <v>35009</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>454000</v>
@@ -2576,14 +2726,14 @@
       <c r="G50" s="2" t="n">
         <v>587000</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0.06684168321368565</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>0.06684168321368565</v>
+      <c r="H50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>0</v>
@@ -2600,7 +2750,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>29007</v>
@@ -2617,14 +2767,14 @@
       <c r="G51" s="3" t="n">
         <v>320897000</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>0.0003432537009676282</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.01827544767035049</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>0.01793219396938286</v>
+      <c r="H51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>0.0001162032344775922</v>

--- a/consumption_tables/Total energy consumption._              Billion Btu/Wind energy, total consumed._                 Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Wind energy, total consumed._                 Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>StateCode</t>
   </si>
@@ -53,19 +53,25 @@
     <t>ChangeConsumptionPerCapita</t>
   </si>
   <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>0.2400422009675895%</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
-    <t>0.0%</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
     <t>AZ</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
   <si>
     <t>0.29259728182472916%</t>
@@ -712,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,32 +775,34 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s"/>
+        <v>1488</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="2" t="n">
-        <v>4050000</v>
+        <v>553000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4854000</v>
+        <v>738000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0</v>
+        <v>0.002016260162601626</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0</v>
+        <v>0.002016260162601626</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -802,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
@@ -812,19 +820,19 @@
       </c>
       <c r="E3" s="2" t="s"/>
       <c r="F3" s="2" t="n">
-        <v>2357000</v>
+        <v>4050000</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2978000</v>
+        <v>4854000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0</v>
@@ -841,40 +849,38 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4213</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s"/>
       <c r="F4" s="2" t="n">
-        <v>3684000</v>
+        <v>2357000</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6818000</v>
+        <v>2978000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.0006179231446171898</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.0006179231446171898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -885,37 +891,37 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>28698</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>113967</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>3.971252352080284</v>
+        <v>4213</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>29960000</v>
+        <v>3684000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>38994000</v>
-      </c>
-      <c r="H5" s="3" t="s">
+        <v>6818000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>0.0009578771695594125</v>
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.002922680412371134</v>
+        <v>0.0006179231446171898</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0.001964803242811721</v>
+        <v>0.0006179231446171898</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -923,40 +929,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>28698</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>113967</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>3.971252352080284</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>29960000</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>38994000</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>69662</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>3308000</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>5449000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
+      <c r="K6" s="3" t="n">
+        <v>0.0009578771695594125</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.01278436410350523</v>
+        <v>0.002922680412371134</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0.01278436410350523</v>
+        <v>0.001964803242811721</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -970,32 +976,34 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s"/>
+        <v>69662</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="2" t="n">
-        <v>3292000</v>
+        <v>3308000</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3585000</v>
+        <v>5449000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0</v>
+        <v>0.01278436410350523</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0</v>
+        <v>0.01278436410350523</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1003,40 +1011,38 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s"/>
       <c r="F8" s="2" t="n">
-        <v>670000</v>
+        <v>3292000</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>944000</v>
+        <v>3585000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>5.084745762711864e-05</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.084745762711864e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1050,32 +1056,34 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="2" t="n">
-        <v>13033000</v>
+        <v>670000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20245000</v>
+        <v>944000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0</v>
+        <v>5.084745762711864e-05</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0</v>
+        <v>5.084745762711864e-05</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1083,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0</v>
@@ -1093,19 +1101,19 @@
       </c>
       <c r="E10" s="2" t="s"/>
       <c r="F10" s="2" t="n">
-        <v>6513000</v>
+        <v>13033000</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10199000</v>
+        <v>20245000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>0</v>
@@ -1122,40 +1130,38 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5710</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>19.03333333333333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s"/>
       <c r="F11" s="2" t="n">
-        <v>1113000</v>
+        <v>6513000</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1425000</v>
+        <v>10199000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.0002695417789757413</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.004007017543859649</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.003737475764883908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1163,40 +1169,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>5710</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>19.03333333333333</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1113000</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>1425000</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>166555</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>2781000</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>3122000</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>0.0002695417789757413</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.05334881486226778</v>
+        <v>0.004007017543859649</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0.05334881486226778</v>
+        <v>0.003737475764883908</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1210,34 +1216,34 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>21156</v>
+        <v>166555</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1012000</v>
+        <v>2781000</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1653000</v>
+        <v>3122000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.01279854809437387</v>
+        <v>0.05334881486226778</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0.01279854809437387</v>
+        <v>0.05334881486226778</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1251,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>100154</v>
+        <v>21156</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>11453000</v>
+        <v>1012000</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>12839000</v>
+        <v>1653000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>38</v>
@@ -1275,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.007800763299322377</v>
+        <v>0.01279854809437387</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0.007800763299322377</v>
+        <v>0.01279854809437387</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1292,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>42077</v>
+        <v>100154</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5558000</v>
+        <v>11453000</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6613000</v>
+        <v>12839000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>40</v>
@@ -1316,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.006362770300922425</v>
+        <v>0.007800763299322377</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0.006362770300922425</v>
+        <v>0.007800763299322377</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1333,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>102495</v>
+        <v>42077</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2481000</v>
+        <v>5558000</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2907000</v>
+        <v>6613000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>42</v>
@@ -1357,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.03525799793601651</v>
+        <v>0.006362770300922425</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.03525799793601651</v>
+        <v>0.006362770300922425</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1374,32 +1380,34 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s"/>
+        <v>102495</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="2" t="n">
-        <v>3694000</v>
+        <v>2481000</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4425000</v>
+        <v>2907000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>0.03525799793601651</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0</v>
+        <v>0.03525799793601651</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1407,7 +1415,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
@@ -1417,19 +1425,19 @@
       </c>
       <c r="E18" s="2" t="s"/>
       <c r="F18" s="2" t="n">
-        <v>4222000</v>
+        <v>3694000</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4669000</v>
+        <v>4425000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>0</v>
@@ -1446,40 +1454,38 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s"/>
       <c r="F19" s="2" t="n">
-        <v>6023000</v>
+        <v>4222000</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6784000</v>
+        <v>4669000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.000294811320754717</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.000294811320754717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1493,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>4050</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4800000</v>
+        <v>6023000</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5995000</v>
+        <v>6784000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>48</v>
@@ -1517,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.0006755629691409508</v>
+        <v>0.000294811320754717</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.0006755629691409508</v>
+        <v>0.000294811320754717</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1534,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>12075</v>
+        <v>4050</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1232000</v>
+        <v>4800000</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1329000</v>
+        <v>5995000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>50</v>
@@ -1558,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.009085778781038376</v>
+        <v>0.0006755629691409508</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0.009085778781038376</v>
+        <v>0.0006755629691409508</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1575,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44702</v>
+        <v>12075</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9311000</v>
+        <v>1232000</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>9918000</v>
+        <v>1329000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>52</v>
@@ -1599,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.004507158701351079</v>
+        <v>0.009085778781038376</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0.004507158701351079</v>
+        <v>0.009085778781038376</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1613,37 +1619,37 @@
         <v>53</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>91129</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>30376.33333333333</v>
+        <v>44702</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4390000</v>
+        <v>9311000</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5482000</v>
+        <v>9918000</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>6.83371298405467e-07</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.01662331265961328</v>
+        <v>0.004507158701351079</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0.01662262928831487</v>
+        <v>0.004507158701351079</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1651,40 +1657,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>91129</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>30376.33333333333</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>4390000</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>5482000</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>9627</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>5129000</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>6076000</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0</v>
+        <v>6.83371298405467e-07</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.001584430546412113</v>
+        <v>0.01662331265961328</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0.001584430546412113</v>
+        <v>0.01662262928831487</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1698,32 +1704,34 @@
         <v>0</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="s"/>
+        <v>9627</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" s="2" t="n">
-        <v>2579000</v>
+        <v>5129000</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2989000</v>
+        <v>6076000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0</v>
+        <v>0.001584430546412113</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0</v>
+        <v>0.001584430546412113</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1731,40 +1739,38 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>18309</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s"/>
       <c r="F26" s="2" t="n">
-        <v>800000</v>
+        <v>2579000</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1032000</v>
+        <v>2989000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.01774127906976744</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0.01774127906976744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1778,32 +1784,34 @@
         <v>0</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="s"/>
+        <v>18309</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F27" s="2" t="n">
-        <v>6664000</v>
+        <v>800000</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>10035000</v>
+        <v>1032000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0</v>
+        <v>0.01774127906976744</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0</v>
+        <v>0.01774127906976744</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1811,40 +1819,38 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>60627</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s"/>
       <c r="F28" s="2" t="n">
-        <v>638000</v>
+        <v>6664000</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>757000</v>
+        <v>10035000</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L28" s="3" t="n">
-        <v>0.0800885072655218</v>
-      </c>
-      <c r="M28" s="3" t="n">
-        <v>0.0800885072655218</v>
+      <c r="L28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1858,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>29639</v>
+        <v>60627</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1221000</v>
+        <v>638000</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2884000</v>
+        <v>757000</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>66</v>
@@ -1881,11 +1887,11 @@
       <c r="K29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L29" s="2" t="n">
-        <v>0.01027704576976422</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>0.01027704576976422</v>
+      <c r="L29" s="3" t="n">
+        <v>0.0800885072655218</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>0.0800885072655218</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1899,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>3947</v>
+        <v>29639</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1112000</v>
+        <v>1221000</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1330000</v>
+        <v>2884000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>68</v>
@@ -1923,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.002967669172932331</v>
+        <v>0.01027704576976422</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0.002967669172932331</v>
+        <v>0.01027704576976422</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1940,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>201</v>
+        <v>3947</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7763000</v>
+        <v>1112000</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8935000</v>
+        <v>1330000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>70</v>
@@ -1964,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.249580302182429e-05</v>
+        <v>0.002967669172932331</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>2.249580302182429e-05</v>
+        <v>0.002967669172932331</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1981,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>19477</v>
+        <v>201</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1522000</v>
+        <v>7763000</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2080000</v>
+        <v>8935000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>72</v>
@@ -2005,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.009363942307692307</v>
+        <v>2.249580302182429e-05</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.009363942307692307</v>
+        <v>2.249580302182429e-05</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2022,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2886</v>
+        <v>19477</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1582000</v>
+        <v>1522000</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1894000</v>
+        <v>2080000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>74</v>
@@ -2046,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.001523759239704329</v>
+        <v>0.009363942307692307</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0.001523759239704329</v>
+        <v>0.009363942307692307</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2063,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>37061</v>
+        <v>2886</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>18021000</v>
+        <v>1582000</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19747000</v>
+        <v>1894000</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>76</v>
@@ -2087,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0.001876791411353623</v>
+        <v>0.001523759239704329</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>0.001876791411353623</v>
+        <v>0.001523759239704329</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2104,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>11211</v>
+        <v>37061</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>10864000</v>
+        <v>18021000</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>11605000</v>
+        <v>19747000</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>78</v>
@@ -2128,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.0009660491167600172</v>
+        <v>0.001876791411353623</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0.0009660491167600172</v>
+        <v>0.001876791411353623</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2145,19 +2151,19 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>130754</v>
+        <v>11211</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3149000</v>
+        <v>10864000</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3907000</v>
+        <v>11605000</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>80</v>
@@ -2169,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.03346659841310468</v>
+        <v>0.0009660491167600172</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>0.03346659841310468</v>
+        <v>0.0009660491167600172</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2183,37 +2189,37 @@
         <v>81</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>61799</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>10299.83333333333</v>
+        <v>130754</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2860000</v>
+        <v>3149000</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4025000</v>
+        <v>3907000</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="J37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>2.097902097902098e-06</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.01535378881987578</v>
+        <v>0.03346659841310468</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>0.01535169091777787</v>
+        <v>0.03346659841310468</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2221,40 +2227,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>61799</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>10299.83333333333</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>2860000</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>4025000</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>31244</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>11903000</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>12792000</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>86</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>0</v>
+        <v>2.097902097902098e-06</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.002442464040025016</v>
+        <v>0.01535378881987578</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0.002442464040025016</v>
+        <v>0.01535169091777787</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2268,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>94</v>
+        <v>31244</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1006000</v>
+        <v>11903000</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1056000</v>
+        <v>12792000</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>88</v>
@@ -2292,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>8.901515151515151e-05</v>
+        <v>0.002442464040025016</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>8.901515151515151e-05</v>
+        <v>0.002442464040025016</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2309,32 +2315,34 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F40" s="2" t="n">
-        <v>3501000</v>
+        <v>1006000</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4895000</v>
+        <v>1056000</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0</v>
+        <v>8.901515151515151e-05</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0</v>
+        <v>8.901515151515151e-05</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2342,40 +2350,38 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>23274</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s"/>
       <c r="F41" s="2" t="n">
-        <v>697000</v>
+        <v>3501000</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>858000</v>
+        <v>4895000</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0.02712587412587412</v>
+        <v>0</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>0.02712587412587412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2389,19 +2395,19 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>427</v>
+        <v>23274</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4894000</v>
+        <v>697000</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6595000</v>
+        <v>858000</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>93</v>
@@ -2413,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>6.474601971190296e-05</v>
+        <v>0.02712587412587412</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>6.474601971190296e-05</v>
+        <v>0.02712587412587412</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2430,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>417802</v>
+        <v>427</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>17057000</v>
+        <v>4894000</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>27430000</v>
+        <v>6595000</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>95</v>
@@ -2454,15 +2460,15 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.01523157127232957</v>
+        <v>6.474601971190296e-05</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>0.01523157127232957</v>
+        <v>6.474601971190296e-05</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>96</v>
@@ -2471,19 +2477,19 @@
         <v>0</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>5833</v>
+        <v>417802</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1731000</v>
+        <v>17057000</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2991000</v>
+        <v>27430000</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>97</v>
@@ -2495,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.001950183884988298</v>
+        <v>0.01523157127232957</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.001950183884988298</v>
+        <v>0.01523157127232957</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2512,32 +2518,34 @@
         <v>0</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2" t="s"/>
+        <v>5833</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F45" s="2" t="n">
-        <v>6217000</v>
+        <v>1731000</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>8368000</v>
+        <v>2991000</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0</v>
+        <v>0.001950183884988298</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>0</v>
+        <v>0.001950183884988298</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2545,40 +2553,38 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>3032</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="s"/>
       <c r="F46" s="2" t="n">
-        <v>565000</v>
+        <v>6217000</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>626000</v>
+        <v>8368000</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.004843450479233227</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0.004843450479233227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2592,19 +2598,19 @@
         <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>65936</v>
+        <v>3032</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>4903000</v>
+        <v>565000</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>7160000</v>
+        <v>626000</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>102</v>
@@ -2616,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.009208938547486034</v>
+        <v>0.004843450479233227</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>0.009208938547486034</v>
+        <v>0.004843450479233227</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2633,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>14811</v>
+        <v>65936</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>4905000</v>
+        <v>4903000</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>5768000</v>
+        <v>7160000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>104</v>
@@ -2657,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.002567787794729542</v>
+        <v>0.009208938547486034</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>0.002567787794729542</v>
+        <v>0.009208938547486034</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2674,19 +2680,19 @@
         <v>0</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>12825</v>
+        <v>14811</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1793000</v>
+        <v>4905000</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1841000</v>
+        <v>5768000</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>106</v>
@@ -2698,36 +2704,36 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.006966322650733297</v>
+        <v>0.002567787794729542</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>0.006966322650733297</v>
+        <v>0.002567787794729542</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>35009</v>
+        <v>12825</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>454000</v>
+        <v>1793000</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>587000</v>
+        <v>1841000</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>108</v>
@@ -2739,50 +2745,91 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>0.05964054514480409</v>
+        <v>0.006966322650733297</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>0.05964054514480409</v>
+        <v>0.006966322650733297</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="C51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>35009</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>454000</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>587000</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>0.05964054514480409</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>0.05964054514480409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="3" t="n">
         <v>29007</v>
       </c>
-      <c r="D51" s="3" t="n">
+      <c r="D52" s="3" t="n">
         <v>1777306</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E52" s="2" t="n">
         <v>61.27162409073672</v>
       </c>
-      <c r="F51" s="3" t="n">
+      <c r="F52" s="3" t="n">
         <v>249623000</v>
       </c>
-      <c r="G51" s="3" t="n">
+      <c r="G52" s="3" t="n">
         <v>320897000</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J51" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="I52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>0.0001162032344775922</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.005538555985253836</v>
       </c>
-      <c r="M51" s="2" t="n">
+      <c r="M52" s="2" t="n">
         <v>0.005422352750776243</v>
       </c>
     </row>
